--- a/Files/Vaccine_February 1, 2023.xlsx
+++ b/Files/Vaccine_February 1, 2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="320">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Dengue Tetravalent Vaccine, Live [7]</t>
+    <t xml:space="preserve">Dengue Tetravalent Vaccine, Live </t>
   </si>
   <si>
     <t xml:space="preserve">Dengvaxia</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">75D30122D13471</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">75D30122D13474</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">$59.387</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$92.634</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">$111.298</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV-HIB-HEPB [6]</t>
+    <t xml:space="preserve">DTaP-IPV-HIB-HEPB </t>
   </si>
   <si>
     <t xml:space="preserve">Vaxelis</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">63361-0243-15</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">$40.643</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">$36.924</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -257,8 +257,7 @@
     <t xml:space="preserve">$121.40</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -288,7 +287,7 @@
     <t xml:space="preserve">00006-4093-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -327,7 +326,7 @@
     <t xml:space="preserve">$12.452</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -342,7 +341,7 @@
     <t xml:space="preserve">$268.773</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -375,7 +374,7 @@
     <t xml:space="preserve">$211.322</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, W and Y) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, W and Y) </t>
   </si>
   <si>
     <t xml:space="preserve">MenQuadfi</t>
@@ -390,7 +389,7 @@
     <t xml:space="preserve">$156.108</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menveo</t>
@@ -405,7 +404,7 @@
     <t xml:space="preserve">$148.488</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -426,7 +425,7 @@
     <t xml:space="preserve">58160-0824-15</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -441,8 +440,7 @@
     <t xml:space="preserve">$262.367</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13TM</t>
@@ -457,8 +455,7 @@
     <t xml:space="preserve">$226.43</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-15-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 15-valent </t>
   </si>
   <si>
     <t xml:space="preserve">VaxneuvanceTM</t>
@@ -488,7 +485,7 @@
     <t xml:space="preserve">$117.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -512,7 +509,7 @@
     <t xml:space="preserve">25 pack - 1 oral dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -530,7 +527,7 @@
     <t xml:space="preserve">58160-0740-21</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -566,7 +563,7 @@
     <t xml:space="preserve">75D30122D13470</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -605,7 +602,7 @@
     <t xml:space="preserve">$52.410</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -620,7 +617,7 @@
     <t xml:space="preserve">$159.991</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -647,13 +644,13 @@
     <t xml:space="preserve">75D30122D14070</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$67.923</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Heplisav-B</t>
@@ -692,7 +689,7 @@
     <t xml:space="preserve">$36.223</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4094-02</t>
@@ -704,13 +701,13 @@
     <t xml:space="preserve">$64.903</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$164.56</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella </t>
   </si>
   <si>
     <t xml:space="preserve">$55.89</t>
@@ -746,8 +743,7 @@
     <t xml:space="preserve">$149.90</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-20-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 20-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 20</t>
@@ -816,12 +812,10 @@
     <t xml:space="preserve">$183.406</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0637-15</t>
@@ -848,8 +842,7 @@
     <t xml:space="preserve">49281-0422-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0890-52</t>
@@ -867,8 +860,7 @@
     <t xml:space="preserve">75D30122D12997</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0808-52</t>
@@ -901,8 +893,7 @@
     <t xml:space="preserve">$26.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria Quadrivalent</t>
@@ -926,12 +917,10 @@
     <t xml:space="preserve">$18.52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0309-10</t>
@@ -974,10 +963,6 @@
   </si>
   <si>
     <t xml:space="preserve">$17.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">$14.24</t>
@@ -3843,7 +3828,7 @@
         <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
         <v>294</v>
@@ -3852,7 +3837,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
         <v>296</v>
@@ -3872,7 +3857,7 @@
         <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
         <v>297</v>
@@ -3881,7 +3866,7 @@
         <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F10" t="s">
         <v>299</v>
@@ -3910,7 +3895,7 @@
         <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F11" t="s">
         <v>305</v>
@@ -3922,7 +3907,7 @@
         <v>306</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
